--- a/Acc-Retest-Pckg.xlsx
+++ b/Acc-Retest-Pckg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026E617-D2EB-4AA8-B540-431DFDAD8F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC7AFD-A3BC-4662-B111-E147FC5EF9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -52,22 +52,70 @@
     <t>ReasonToReject</t>
   </si>
   <si>
-    <t>Step 2</t>
-  </si>
-  <si>
-    <t>Step 3</t>
-  </si>
-  <si>
-    <t>Click on to the Delete to Delete the Account</t>
-  </si>
-  <si>
-    <t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</t>
-  </si>
-  <si>
-    <t>Click on Confirm / OK to delete the  Account</t>
-  </si>
-  <si>
-    <t>User should be able to validate the Account is deleted</t>
+    <t>TestScenario_1</t>
+  </si>
+  <si>
+    <t>TestScenario_1.TestCase_1</t>
+  </si>
+  <si>
+    <t>New Account</t>
+  </si>
+  <si>
+    <t>User Needs to Login to Salesforce, from the browser with correct credentials</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Click on the Account tab, and click on New button</t>
+  </si>
+  <si>
+    <t>User should be navigated to the New  Account Page</t>
+  </si>
+  <si>
+    <t>TestScenario_2</t>
+  </si>
+  <si>
+    <t>TestScenario_2.TestCase_1</t>
+  </si>
+  <si>
+    <t>View Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Account tab,  and select a Account </t>
+  </si>
+  <si>
+    <t>User should be navigated to the Account Page</t>
+  </si>
+  <si>
+    <t>TestScenario_3</t>
+  </si>
+  <si>
+    <t>TestScenario_3.TestCase_1</t>
+  </si>
+  <si>
+    <t>Edit Account</t>
+  </si>
+  <si>
+    <t>Click on the Account tab,  and click on existing Account to modify</t>
+  </si>
+  <si>
+    <t>User is navigated to the Account Details page</t>
+  </si>
+  <si>
+    <t>TestScenario_4</t>
+  </si>
+  <si>
+    <t>TestScenario_4.TestCase_1</t>
+  </si>
+  <si>
+    <t>Delete Account</t>
+  </si>
+  <si>
+    <t>Click on the Account tab,  and select the existing  Account to delete</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -438,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,26 +538,108 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="H20" t="s">
-        <v>15</v>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
